--- a/biology/Zoologie/Ceratomia/Ceratomia.xlsx
+++ b/biology/Zoologie/Ceratomia/Ceratomia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Ceratomia regroupe des lépidoptères (papillons) de la famille des Sphingidae, de la sous-famille des Sphinginae, de la tribu des Sphingini.
 Les espèces de ce genre se rencontrent en Amérique du Nord.
@@ -512,9 +524,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le genre Ceratomia a été décrit pour l'entomologiste américain en Thaddeus William Harris en 1839[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Le genre Ceratomia a été décrit pour l'entomologiste américain en Thaddeus William Harris en 1839.
 L'espèce type pour le genre est Ceratomia amyntor (Geyer, 1835).</t>
         </is>
       </c>
@@ -543,13 +557,49 @@
           <t>Synonymie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Daremma Walker, 1856[2]
-Isogramma Rothschild &amp; Jordan, 1903[3]
-Autogramma Jordan, 1946[4]
-Liste des espèces
-Ceratomia amyntor (Geyer, 1835); Espèce type pour le genre
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Daremma Walker, 1856
+Isogramma Rothschild &amp; Jordan, 1903
+Autogramma Jordan, 1946</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Ceratomia</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ceratomia</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ceratomia amyntor (Geyer, 1835); Espèce type pour le genre
 Ceratomia catalpae (Boisduval, 1875)
 Ceratomia hageni Grote, 1874
 Ceratomia hoffmanni Mooser, 1942
